--- a/data/trans_dic/P3A$otraSIcobra-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P3A$otraSIcobra-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,31; 8,16</t>
+          <t>4,14; 7,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,29; 9,28</t>
+          <t>5,19; 9,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 7,9</t>
+          <t>5,04; 7,75</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,02</t>
+          <t>2,04; 4,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,82</t>
+          <t>2,12; 4,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,28</t>
+          <t>2,27; 4,34</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,83</t>
+          <t>0,24; 2,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 6,2</t>
+          <t>2,05; 6,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,61</t>
+          <t>0,58; 2,44</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,54</t>
+          <t>1,54; 3,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,3</t>
+          <t>0,79; 2,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,62</t>
+          <t>1,31; 2,58</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,11</t>
+          <t>1,01; 3,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,64</t>
+          <t>1,69; 3,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,07</t>
+          <t>1,69; 3,05</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,45; 9,59</t>
+          <t>0,86; 11,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,96; 5,3</t>
+          <t>2,95; 5,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,44</t>
+          <t>2,72; 5,47</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,32</t>
+          <t>2,04; 3,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,68; 3,83</t>
+          <t>2,67; 3,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,4</t>
+          <t>2,53; 3,42</t>
         </is>
       </c>
     </row>
@@ -913,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que al menos, otra persona que no reside en el hogar y cobra por ello, se ocupa principalmente de las tareas domésticas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>29293</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>31060</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>60353</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>20912; 39378</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>23171; 41301</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>47943; 73821</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>14767</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12447</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>27214</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9200; 21796</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8095; 18601</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>18923; 36223</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6349</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6251</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12600</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1603; 13338</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3415; 10648</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4812; 20399</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>23744</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>14947</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>38691</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>15922; 35664</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7729; 23076</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>26346; 51963</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8834</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>21773</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>30607</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4777; 15254</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>14243; 29397</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>22288; 40172</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>7973</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>30600</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>38573</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2076; 28092</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>22448; 40472</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>27257; 54824</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>90960</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>117079</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>208039</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>68728; 113844</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>95647; 137733</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>175707; 237608</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P3A$otraSIcobra-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P3A$otraSIcobra-Clase-trans_dic.xlsx
@@ -797,7 +797,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1357,7 +1357,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
